--- a/data/balance_sheet/3digits/total/352_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/352_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>352-Manufacture of gas; distribution of gaseous fuels through mains</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>352-Manufacture of gas; distribution of gaseous fuels through mains</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,55 +915,65 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>2529248.97934</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>2779873.85161</v>
+        <v>2779873.851610001</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>4184676.066690001</v>
+        <v>4184676.06669</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>5459424.599060001</v>
+        <v>5459424.59906</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>7186289.350729999</v>
+        <v>7186289.35073</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>8723609.7007</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>10554683.64258</v>
+        <v>10686707.40428</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>13503027.72244</v>
+        <v>13503027.72245</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>14599850.73434</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>18919092.21552999</v>
+        <v>18919092.74119</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>19716407.78565999</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>19752541.05479</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>23162559.712</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>719737.26328</v>
+        <v>719737.2632800001</v>
       </c>
       <c r="D6" s="23" t="n">
         <v>741761.7669500001</v>
@@ -1530,16 +985,16 @@
         <v>1855244.55149</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>2585813.286729999</v>
+        <v>2585813.28673</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>3412611.53332</v>
+        <v>3412611.533320001</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>3739476.68599</v>
+        <v>3743687.23385</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>4395473.66023</v>
+        <v>4395473.66024</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>3915398.93547</v>
@@ -1548,14 +1003,19 @@
         <v>3700951.00686</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>3943435.74091</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>3943462.96035</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>5118318.816</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4082.08824</v>
@@ -1570,32 +1030,37 @@
         <v>3588.21531</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>6065.525729999998</v>
+        <v>6065.525729999999</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>3965.78796</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>5257.502020000001</v>
+        <v>5262.72566</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>20190.75206</v>
+        <v>20190.75207</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>8607.928689999999</v>
+        <v>8607.928690000001</v>
       </c>
       <c r="L7" s="22" t="n">
         <v>11639.50663</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>9538.200879999999</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>9540.512339999999</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>8754.807000000001</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1192.05556</v>
@@ -1616,7 +1081,7 @@
         <v>5490.8213</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>7779.858130000001</v>
+        <v>7779.85813</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>7627.43389</v>
@@ -1630,18 +1095,23 @@
       <c r="M8" s="22" t="n">
         <v>6411.344990000001</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>11942.565</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>659261.92087</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>756764.27917</v>
+        <v>756764.2791700001</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>1165311.45747</v>
@@ -1656,7 +1126,7 @@
         <v>3323573.62469</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>3646529.72759</v>
+        <v>3648492.55003</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>4265361.99426</v>
@@ -1668,14 +1138,19 @@
         <v>2286026.21701</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>3779709.05347</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>3779733.96145</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>4950616.604</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>704.79567</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>1115.60919</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>3075.557</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>55905.99428</v>
@@ -1730,13 +1210,13 @@
         <v>70011.27842</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>72174.41997999999</v>
+        <v>72174.41998000001</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>81085.10024999999</v>
+        <v>81085.10025</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>82117.62401</v>
+        <v>84360.12578999999</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>102509.24322</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>148892.75076</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>150080.397</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>16872.40113</v>
@@ -1779,7 +1264,7 @@
         <v>115655.3515</v>
       </c>
       <c r="J12" s="33" t="n">
-        <v>88578.42697999999</v>
+        <v>88578.42698</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>87165.08733000001</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>522185.60077</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>432414.397</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>16.0513</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>16.043</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>1.18221</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>10.32481</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>334447.982</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>16333.14344</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>1188.30335</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>2703.462</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>538.07548</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>520970.92131</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>95246.91</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>789764.74885</v>
@@ -2016,7 +1531,7 @@
         <v>2458174.327</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>2846024.6665</v>
+        <v>2911164.67759</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>5380466.86663</v>
@@ -2028,20 +1543,25 @@
         <v>7819872.816610001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>7451057.803780001</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>7451057.803779999</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>9595107.997</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>648960.9866899999</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>804574.03369</v>
+        <v>804574.0336900001</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>1113130.48822</v>
@@ -2056,7 +1576,7 @@
         <v>2161992.02844</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>2455791.322369999</v>
+        <v>2520694.076069999</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>2812885.47132</v>
@@ -2065,17 +1585,22 @@
         <v>2636785.27749</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>4774628.010220001</v>
+        <v>4774628.01022</v>
       </c>
       <c r="M19" s="22" t="n">
         <v>3907415.11073</v>
       </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+      <c r="N19" s="22" t="n">
+        <v>4919755.057</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>20221.58594</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>63183.81372</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>36344.887</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,15 +1725,20 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
-        <v>709.37383</v>
+        <v>709.3738300000001</v>
       </c>
       <c r="D23" s="22" t="n">
         <v>786.07159</v>
@@ -2216,7 +1756,7 @@
         <v>2112.6403</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>2891.85786</v>
+        <v>2976.38252</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>4191.025</v>
@@ -2225,17 +1765,22 @@
         <v>65141.00859</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>8548.426390000001</v>
+        <v>8548.426389999999</v>
       </c>
       <c r="M23" s="22" t="n">
         <v>32689.56135</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>45345.062</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>118829.50626</v>
@@ -2256,26 +1801,31 @@
         <v>280117.64568</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>366946.87284</v>
+        <v>367099.60557</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>2548124.810459999</v>
+        <v>2548124.81046</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>2679161.387529999</v>
+        <v>2679161.38753</v>
       </c>
       <c r="L24" s="22" t="n">
         <v>3009136.55903</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3445313.333009999</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>3445313.33301</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>4569098.638</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>74003.74088</v>
@@ -2296,7 +1846,7 @@
         <v>182362.05644</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>216921.58209</v>
+        <v>217172.83486</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>268132.10255</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>345217.88423</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>464764.624</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>72960.44475</v>
@@ -2336,7 +1891,7 @@
         <v>180336.11907</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>214740.20893</v>
+        <v>214991.4617</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>265726.3841</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>342761.89926</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>440200.271</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>399079.95754</v>
@@ -2364,7 +1924,7 @@
         <v>382680.47347</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>590821.96251</v>
+        <v>590821.9625100001</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>488901.28163</v>
@@ -2376,7 +1936,7 @@
         <v>491672.86396</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>846338.9985099999</v>
+        <v>846340.8093</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>1123812.56564</v>
@@ -2388,14 +1948,19 @@
         <v>3761658.57329</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>2881341.41195</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>2881346.51195</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>3102222.496</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>141584.6824</v>
@@ -2430,12 +1995,17 @@
       <c r="M28" s="22" t="n">
         <v>1934470.91674</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>1919153.089</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>909.0140200000001</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>1389.74456</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>890.37</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>1223.87847</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>203147.77144</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>191697.44</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>224.70809</v>
@@ -2536,7 +2116,7 @@
         <v>729.4248100000001</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>1401.29234</v>
+        <v>1403.10313</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>2468.75591</v>
@@ -2548,14 +2128,19 @@
         <v>3397.62085</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>4483.97393</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>4483.973930000001</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>4073.314</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>255137.67456</v>
@@ -2588,14 +2173,19 @@
         <v>1482356.90365</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>737849.00528</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>737854.10528</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>986408.2830000001</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>10.56629</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>465.65476</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>547.677</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>10.56629</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>465.65476</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>547.677</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>80958.17727000001</v>
@@ -2736,7 +2341,7 @@
         <v>694334.3841400001</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>909480.3229</v>
+        <v>946274.9684400001</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>333473.69</v>
@@ -2750,18 +2355,23 @@
       <c r="M36" s="23" t="n">
         <v>1176045.09337</v>
       </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+      <c r="N36" s="23" t="n">
+        <v>905569.798</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>35316.62783</v>
       </c>
       <c r="D37" s="22" t="n">
-        <v>44467.80609000001</v>
+        <v>44467.80609</v>
       </c>
       <c r="E37" s="22" t="n">
         <v>36830.96234000001</v>
@@ -2776,7 +2386,7 @@
         <v>38494.85274</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>41375.89016</v>
+        <v>46159.44936</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>91896.78646999999</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>306872.45643</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>477896.03</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>22.85237</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>3893.576</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>789.00354</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>360.296</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>9798.691419999999</v>
@@ -2887,22 +2512,22 @@
         <v>29251.72082</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>48211.63132999999</v>
+        <v>48211.63133</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>87124.20307999998</v>
+        <v>87124.20307999999</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>114592.39173</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>56141.68026</v>
+        <v>88031.76586</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>61699.89194000001</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>62762.98548999999</v>
+        <v>62762.98549</v>
       </c>
       <c r="L40" s="22" t="n">
         <v>103440.98952</v>
@@ -2910,12 +2535,17 @@
       <c r="M40" s="22" t="n">
         <v>97683.82303999999</v>
       </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+      <c r="N40" s="22" t="n">
+        <v>138672.084</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>27245.68435</v>
@@ -2939,7 +2569,7 @@
         <v>58212.88657</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>72907.95133999999</v>
+        <v>72907.95134</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>8368.378190000001</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>4191.59781</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>2031.766</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,21 +2625,26 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>8574.321300000001</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>70322.80010000001</v>
+        <v>70322.80009999999</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>8428.01028</v>
+        <v>8428.010279999999</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>31807.81981</v>
@@ -3016,7 +2656,7 @@
         <v>487968.47782</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>753565.01982</v>
+        <v>753686.0205600001</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>106336.42702</v>
@@ -3030,12 +2670,17 @@
       <c r="M43" s="22" t="n">
         <v>766508.2125500001</v>
       </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+      <c r="N43" s="22" t="n">
+        <v>282716.046</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>1609.06356</v>
@@ -3068,14 +2713,19 @@
         <v>0</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>36099.7463</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>1609.06356</v>
@@ -3108,14 +2758,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>36099.7463</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>327032.9792</v>
@@ -3204,7 +2869,7 @@
         <v>385263.48784</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>639405.3237000001</v>
+        <v>639405.3236999999</v>
       </c>
       <c r="F48" s="45" t="n">
         <v>857360.07825</v>
@@ -3216,7 +2881,7 @@
         <v>991262.79551</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>1471689.9898</v>
+        <v>1472155.92454</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>1643997.90827</v>
@@ -3230,21 +2895,26 @@
       <c r="M48" s="46" t="n">
         <v>2960647.92678</v>
       </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+      <c r="N48" s="46" t="n">
+        <v>3209900.829</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
-        <v>6184.77568</v>
+        <v>6184.775680000001</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>5777.28458</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>9865.597450000001</v>
+        <v>9865.597449999999</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>9159.954470000001</v>
@@ -3253,10 +2923,10 @@
         <v>7402.32574</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>7759.77753</v>
+        <v>7759.777529999999</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>22556.62575</v>
+        <v>22836.31271</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>18313.16408</v>
@@ -3268,14 +2938,19 @@
         <v>31107.5964</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>37214.77817</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>37214.77817000001</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>50170.185</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>320848.20352</v>
@@ -3296,7 +2971,7 @@
         <v>983503.01798</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>1449133.36405</v>
+        <v>1449319.61183</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>1625684.74419</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>2923433.14861</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>3159730.644</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>194194.38851</v>
@@ -3336,26 +3016,31 @@
         <v>630762.8229199999</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>626017.6273800001</v>
+        <v>651428.43906</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>536924.15597</v>
+        <v>536924.1559700001</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>314179.11956</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>716258.6102</v>
+        <v>716259.1358599999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>781694.2081</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>781695.4114899999</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>799025.379</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>163009.50341</v>
@@ -3370,32 +3055,37 @@
         <v>318489.13969</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>356551.35662</v>
+        <v>356551.3566200001</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>553900.84139</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>498092.87301</v>
+        <v>523380.95221</v>
       </c>
       <c r="J52" s="21" t="n">
         <v>439885.59136</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>281280.5211300001</v>
+        <v>281280.52113</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>380684.1509599999</v>
+        <v>380684.67662</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>387977.0844699999</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>387978.28786</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>363148.662</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>1.12093</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>56.43706</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>1562.57266</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>1826.348</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>30387.13818</v>
@@ -3484,7 +3184,7 @@
         <v>2924.8491</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>4303.806390000001</v>
+        <v>4303.80639</v>
       </c>
       <c r="F55" s="21" t="n">
         <v>5548.71852</v>
@@ -3496,7 +3196,7 @@
         <v>7187.08356</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>16925.86668</v>
+        <v>16968.80207</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>34351.18412999999</v>
@@ -3505,29 +3205,34 @@
         <v>29291.91161</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>42299.11854</v>
+        <v>42299.11853999999</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>53979.14318000001</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>53979.14317999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>83109.462</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>492.40165</v>
       </c>
       <c r="D56" s="22" t="n">
-        <v>484.43304</v>
+        <v>484.4330400000001</v>
       </c>
       <c r="E56" s="22" t="n">
         <v>883.0751300000001</v>
       </c>
       <c r="F56" s="21" t="n">
-        <v>927.6860899999999</v>
+        <v>927.68609</v>
       </c>
       <c r="G56" s="22" t="n">
         <v>1453.68143</v>
@@ -3536,7 +3241,7 @@
         <v>1331.11062</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>72205.94842</v>
+        <v>72223.06101999999</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>61775.54635</v>
@@ -3545,17 +3250,22 @@
         <v>1316.24121</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>7152.286880000001</v>
+        <v>7152.28688</v>
       </c>
       <c r="M56" s="22" t="n">
         <v>12339.78742</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>5497.057</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>226.91966</v>
@@ -3567,7 +3277,7 @@
         <v>154.92806</v>
       </c>
       <c r="F57" s="21" t="n">
-        <v>329.0351700000001</v>
+        <v>329.03517</v>
       </c>
       <c r="G57" s="22" t="n">
         <v>245.9032</v>
@@ -3576,26 +3286,31 @@
         <v>361.30906</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>357.44447</v>
+        <v>419.7484700000001</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>525.3127000000001</v>
+        <v>525.3126999999999</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>566.57935</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>935.0496800000001</v>
+        <v>935.04968</v>
       </c>
       <c r="M57" s="22" t="n">
         <v>799.39754</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>5440.317</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>19.30984</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>5.54935</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>51.713</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>1.55778</v>
@@ -3656,7 +3376,7 @@
         <v>67347.91954999999</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>37920.60704</v>
+        <v>37920.98753</v>
       </c>
       <c r="J59" s="21" t="n">
         <v>144.46412</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>325030.67348</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>339951.65</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>7427013.780719999</v>
@@ -3735,7 +3465,7 @@
         <v>14033068.0848</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>17961397.10367</v>
+        <v>18320054.41215</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>15193798.07089</v>
@@ -3744,17 +3474,22 @@
         <v>16363517.3732</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>21773907.61963</v>
+        <v>21773910.02863</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>26099623.08908</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>26100670.08505</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>28705891.228</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>12309.33252</v>
@@ -3763,7 +3498,7 @@
         <v>15495.09021</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>8325.46859</v>
+        <v>8325.468589999999</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>20761.95295</v>
@@ -3778,7 +3513,7 @@
         <v>29237.00679</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>39559.5389</v>
+        <v>39559.53890000001</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>50083.63701</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>65895.31288</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>280070.71</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>20.228</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>4953.25984</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>12309.33252</v>
@@ -3981,20 +3741,25 @@
         <v>39559.5389</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>50083.63701</v>
+        <v>50083.63701000001</v>
       </c>
       <c r="L67" s="22" t="n">
         <v>42202.74073</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>60942.05303999999</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>60942.05304</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>280050.482</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>24.38935</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>1043705.15007</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>791743.878</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>318795.69182</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>339554.545</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>385782.37457</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>23472.35</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>24.38935</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>339127.08368</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>428716.983</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>2289226.01217</v>
@@ -4375,7 +4185,7 @@
         <v>5836935.96646</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>5892655.00038</v>
+        <v>5892655.000379999</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>5609916.33796</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>6863796.84205</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>7501187.631</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>1487.224</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>1487.224</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>1900</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>15422.68125</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>55821.179</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>900.0298399999999</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>900.0298399999999</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>900.03</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>2880360.68201</v>
@@ -4612,10 +4452,10 @@
         <v>5200967.875680001</v>
       </c>
       <c r="H83" s="21" t="n">
-        <v>5819186.92305</v>
+        <v>5819186.923049999</v>
       </c>
       <c r="I83" s="22" t="n">
-        <v>5869882.54897</v>
+        <v>5869882.548969999</v>
       </c>
       <c r="J83" s="21" t="n">
         <v>5598244.46155</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>6848536.96664</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>7445529.258</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>592134.64</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>750</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>5005788.15507</v>
@@ -4806,22 +4671,22 @@
         <v>5690276.540560001</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>6166090.894769999</v>
+        <v>6166090.89477</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>6955452.42199</v>
+        <v>6955452.421990001</v>
       </c>
       <c r="H88" s="33" t="n">
         <v>7971047.28822</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>11522084.94538</v>
+        <v>11877861.47972</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>8923345.500049999</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>9855189.878710002</v>
+        <v>9855189.87871</v>
       </c>
       <c r="L88" s="23" t="n">
         <v>13063041.42503</v>
@@ -4829,12 +4694,17 @@
       <c r="M88" s="23" t="n">
         <v>15321445.82877</v>
       </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+      <c r="N88" s="23" t="n">
+        <v>16991462.168</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>118244.51336</v>
@@ -4855,7 +4725,7 @@
         <v>22829.78381</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>26010.89903</v>
+        <v>26424.95327</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>30870.20448</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>771872.68783</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>772605.603</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>5227034.262940001</v>
@@ -4892,10 +4767,10 @@
         <v>7930393.95625</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>8651191.286900001</v>
+        <v>8651191.286899999</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>8912127.882999999</v>
+        <v>9327473.867830001</v>
       </c>
       <c r="J90" s="21" t="n">
         <v>10520567.10881</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>19674986.59215</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>22352843.812</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>181261.3939</v>
@@ -4935,7 +4815,7 @@
         <v>283688.32038</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>299707.06905</v>
+        <v>300253.06905</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>339094.23801</v>
@@ -4947,14 +4827,19 @@
         <v>450374.92188</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>689966.1743000001</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>689966.1743</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>754338.767</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1098828.41066</v>
@@ -4975,26 +4860,31 @@
         <v>2135471.12721</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>2454440.41269</v>
+        <v>2458338.8865</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>3067334.33873</v>
+        <v>3067334.338729999</v>
       </c>
       <c r="K92" s="22" t="n">
-        <v>808119.5047200002</v>
+        <v>808119.5047199999</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>658041.92026</v>
+        <v>658041.9202600002</v>
       </c>
       <c r="M92" s="22" t="n">
         <v>545847.0635699999</v>
       </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+      <c r="N92" s="22" t="n">
+        <v>651253.554</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>16109.76449</v>
@@ -5015,7 +4905,7 @@
         <v>20107.06189</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>26798.34729</v>
+        <v>27984.79246</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>25811.69185</v>
@@ -5024,20 +4914,25 @@
         <v>33418.75718</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>40329.42274000001</v>
+        <v>40329.42273999999</v>
       </c>
       <c r="M93" s="22" t="n">
         <v>40334.41557</v>
       </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+      <c r="N93" s="22" t="n">
+        <v>49569.855</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>80096.62484</v>
+        <v>80096.62483999999</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>87298.05400999999</v>
@@ -5055,7 +4950,7 @@
         <v>149533.26811</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>163555.98597</v>
+        <v>169107.61908</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>188388.71809</v>
@@ -5069,12 +4964,17 @@
       <c r="M94" s="22" t="n">
         <v>284475.77127</v>
       </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+      <c r="N94" s="22" t="n">
+        <v>302655.303</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>354.07028</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>574.5839599999999</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>799.359</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>2112590.0554</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>2434001.408300001</v>
+        <v>2434001.4083</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>2797856.15846</v>
@@ -5135,7 +5040,7 @@
         <v>4271981.4405</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>4776244.08294</v>
+        <v>4856730.32974</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>5491113.113450001</v>
@@ -5144,17 +5049,22 @@
         <v>6237180.41154</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>7135164.043250001</v>
+        <v>7135164.04325</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>8182093.94627</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>8182093.946269999</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>9376703.977</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>393825.79441</v>
@@ -5163,38 +5073,43 @@
         <v>269111.94313</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>295998.11895</v>
+        <v>295998.1189499999</v>
       </c>
       <c r="F97" s="21" t="n">
         <v>205248.05066</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>388791.8540999999</v>
+        <v>388791.8541</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>975722.0574100001</v>
+        <v>975722.05741</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>4408569.82005</v>
+        <v>4417890.01003</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>232909.10642</v>
       </c>
       <c r="K97" s="22" t="n">
-        <v>269428.0256400001</v>
+        <v>269428.02564</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>387102.1306099999</v>
+        <v>387102.13061</v>
       </c>
       <c r="M97" s="22" t="n">
         <v>193531.50818</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>174378.025</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>2623.37559</v>
@@ -5215,7 +5130,7 @@
         <v>3923.05588</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>6521.760050000001</v>
+        <v>6521.76005</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>9092.133399999999</v>
@@ -5229,21 +5144,26 @@
       <c r="M98" s="22" t="n">
         <v>1301950.97821</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1309721.867</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>45997.91131</v>
+        <v>45997.91131000001</v>
       </c>
       <c r="D99" s="23" t="n">
         <v>48826.78278</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>50689.8407</v>
+        <v>50689.84069999999</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>48760.58003</v>
@@ -5255,7 +5175,7 @@
         <v>86342.10833</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>274781.77843</v>
+        <v>277633.97737</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>250417.68838</v>
@@ -5264,20 +5184,25 @@
         <v>306908.64096</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>580825.6158299999</v>
+        <v>580828.0248299999</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>1580969.23869</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>1580973.92783</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>1621608.849</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
-        <v>35094.53865000001</v>
+        <v>35094.53864999999</v>
       </c>
       <c r="D100" s="22" t="n">
         <v>40475.57623</v>
@@ -5286,35 +5211,40 @@
         <v>44097.65368000001</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>46710.78654</v>
+        <v>46710.78654000001</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>73860.04498999999</v>
+        <v>73860.04499000001</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>89796.51867</v>
+        <v>89796.51866999999</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>100637.15987</v>
+        <v>104295.48442</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>259611.29103</v>
       </c>
       <c r="K100" s="22" t="n">
-        <v>307824.8657499999</v>
+        <v>307824.86575</v>
       </c>
       <c r="L100" s="22" t="n">
         <v>432623.65617</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>511326.0615500001</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>511326.06155</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>581075.319</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>2.672</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>1128298.11193</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>1128298.112</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>829.7862100000001</v>
@@ -5363,16 +5298,16 @@
         <v>892.5095200000001</v>
       </c>
       <c r="E102" s="22" t="n">
-        <v>745.8791100000001</v>
+        <v>745.87911</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>566.9600600000001</v>
+        <v>566.9600599999999</v>
       </c>
       <c r="G102" s="22" t="n">
         <v>796.68084</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>874.6353800000001</v>
+        <v>874.6353800000002</v>
       </c>
       <c r="I102" s="22" t="n">
         <v>881.0115700000001</v>
@@ -5381,20 +5316,25 @@
         <v>859.3603400000001</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>853.84288</v>
+        <v>853.8428799999999</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>862.1363299999999</v>
+        <v>864.5453299999999</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>891.54014</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>897.4015700000001</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>879.968</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,39 +5369,44 @@
       <c r="M103" s="22" t="n">
         <v>1141.04397</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>1355.45</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>33477.46231</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>35565.97595</v>
+        <v>35565.97594999999</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>40996.64313</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>44899.14057000001</v>
+        <v>44899.14057</v>
       </c>
       <c r="G104" s="22" t="n">
         <v>49750.20159</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>53056.13561999999</v>
+        <v>53056.13562</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>54359.38946</v>
+        <v>55287.47994</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>64145.52755999999</v>
+        <v>64145.52756</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>91291.0871</v>
+        <v>91291.08710000002</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>103126.7943</v>
@@ -5469,12 +5414,17 @@
       <c r="M104" s="22" t="n">
         <v>108880.33736</v>
       </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+      <c r="N104" s="22" t="n">
+        <v>123104.722</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>21667.02566</v>
@@ -5486,7 +5436,7 @@
         <v>23831.04687</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>26025.09310999999</v>
+        <v>26025.09311</v>
       </c>
       <c r="G105" s="22" t="n">
         <v>30304.32398</v>
@@ -5495,7 +5445,7 @@
         <v>33136.24576</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>38831.54304</v>
+        <v>39323.75166</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>54899.42632</v>
@@ -5507,20 +5457,25 @@
         <v>81085.5751</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>87116.36207</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>87116.36206999999</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>88768.65399999999</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>45138.57352000001</v>
+        <v>45138.57352</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>50721.80264</v>
+        <v>50721.80263999999</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>58981.38209000001</v>
@@ -5529,13 +5484,13 @@
         <v>69487.94003</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>78528.43604999999</v>
+        <v>78528.43605</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>90882.59709000001</v>
+        <v>90882.59709</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>105335.06426</v>
+        <v>107561.48897</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>129716.35963</v>
@@ -5547,14 +5502,19 @@
         <v>210703.53844</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>256696.35374</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>256697.52603</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>301885.511</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>65</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>12.13541</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>12.135</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>116.44159</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>55.15705999999999</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>49.029</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>153.21255</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>153.21255</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>153.213</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>36.77096</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>98.05549000000001</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>104.184</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,39 +5819,44 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>73533.31217999999</v>
+        <v>73533.31218000001</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>71091.68918</v>
+        <v>71091.68917999999</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>71174.91168</v>
+        <v>71174.91167999999</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>79461.31381000001</v>
+        <v>79461.31380999999</v>
       </c>
       <c r="G114" s="23" t="n">
         <v>91536.14814</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>86105.48882</v>
+        <v>86105.48882000001</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>213240.49813</v>
+        <v>213269.07333</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>355960.14785</v>
       </c>
       <c r="K114" s="23" t="n">
-        <v>496253.2425399999</v>
+        <v>496253.24254</v>
       </c>
       <c r="L114" s="23" t="n">
         <v>1047943.65701</v>
@@ -5869,18 +5864,23 @@
       <c r="M114" s="23" t="n">
         <v>1221606.07447</v>
       </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+      <c r="N114" s="23" t="n">
+        <v>1517765.694</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>71332.24312999999</v>
+        <v>71332.24313000002</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>66200.99890999999</v>
+        <v>66200.99891000001</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>65293.50315999999</v>
@@ -5895,13 +5895,13 @@
         <v>63408.8314</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>182143.50983</v>
+        <v>182172.08503</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>325624.19947</v>
       </c>
       <c r="K115" s="22" t="n">
-        <v>496253.2425399999</v>
+        <v>496253.24254</v>
       </c>
       <c r="L115" s="22" t="n">
         <v>1047943.65701</v>
@@ -5909,12 +5909,17 @@
       <c r="M115" s="22" t="n">
         <v>1221606.07447</v>
       </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+      <c r="N115" s="22" t="n">
+        <v>1517745.193</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>2201.06905</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>20.501</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>18.22653</v>
@@ -5987,14 +5997,19 @@
         <v>5714.10596</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>2149.48509</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>3191.79192</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>2003.269</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>157.95203</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>75.521</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>18.20682</v>
@@ -6187,14 +6222,19 @@
         <v>1042.30683</v>
       </c>
       <c r="M122" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+        <v>1042.30683</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>53.10386</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>1005.71289</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>1038.916</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>53.08415</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>318.00607</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>369.343</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,15 +6404,20 @@
       <c r="M126" s="22" t="n">
         <v>1303.82624</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>1258.175</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>9956262.760059997</v>
+        <v>9956262.760059999</v>
       </c>
       <c r="D127" s="23" t="n">
         <v>10585337.28501</v>
@@ -6375,23 +6435,26 @@
         <v>22756677.7855</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>28516080.74625</v>
+        <v>29006761.81643</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>28696825.79333</v>
+        <v>28696825.79334</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>30963368.10754</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>40692999.83515999</v>
+        <v>40693002.76982</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>45816030.87474</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>45853211.13984001</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>51868450.94</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>352-Manufacture of gas; distribution of gaseous fuels through mains</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>2754727.90034</v>
@@ -6495,7 +6572,7 @@
         <v>3052342.64023</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>4163674.076539999</v>
+        <v>4163674.07654</v>
       </c>
       <c r="F132" s="33" t="n">
         <v>4914087.09369</v>
@@ -6507,26 +6584,31 @@
         <v>7490512.53865</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>12298165.44404</v>
+        <v>12592292.19901</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>10069477.37238</v>
+        <v>10069477.37239</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>10075875.5591</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>16853848.34454</v>
+        <v>16853854.19956</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>18511106.99774</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>18546959.08934</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>20578780.22</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>102204.96902</v>
@@ -6547,10 +6629,10 @@
         <v>702786.11714</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>845489.3204899998</v>
+        <v>906927.52257</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>628540.49629</v>
+        <v>628540.4963</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>535668.60332</v>
@@ -6561,15 +6643,20 @@
       <c r="M133" s="23" t="n">
         <v>2229004.17356</v>
       </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+      <c r="N133" s="23" t="n">
+        <v>2804937.427</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
-        <v>89246.64560999999</v>
+        <v>89246.64560999998</v>
       </c>
       <c r="D134" s="22" t="n">
         <v>123256.52616</v>
@@ -6587,32 +6674,37 @@
         <v>591058.1961800001</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>756622.0092999998</v>
+        <v>756776.8540999999</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>510684.3344899999</v>
+        <v>510684.3344999999</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>472966.41962</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>593818.3616999999</v>
+        <v>593818.3617</v>
       </c>
       <c r="M134" s="22" t="n">
         <v>1763222.97441</v>
       </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+      <c r="N134" s="22" t="n">
+        <v>2114138.977</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>542.18632</v>
       </c>
       <c r="D135" s="22" t="n">
-        <v>512.19103</v>
+        <v>512.1910300000001</v>
       </c>
       <c r="E135" s="22" t="n">
         <v>561.3040599999999</v>
@@ -6627,7 +6719,7 @@
         <v>223.36059</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>35.42237</v>
+        <v>35.42236999999999</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>26478.7249</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>2623.10467</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>97602.85000000001</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>73.87591</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>385.95133</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>10911.439</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>12490.013</v>
@@ -6707,7 +6809,7 @@
         <v>111497.17768</v>
       </c>
       <c r="I137" s="22" t="n">
-        <v>88793.96051</v>
+        <v>150077.31779</v>
       </c>
       <c r="J137" s="21" t="n">
         <v>98081.79706999999</v>
@@ -6719,14 +6821,19 @@
         <v>432627.45337</v>
       </c>
       <c r="M137" s="22" t="n">
-        <v>463177.19642</v>
-      </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+        <v>463177.1964199999</v>
+      </c>
+      <c r="N137" s="22" t="n">
+        <v>593389.276</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6916,17 +7043,22 @@
         <v>163.82032</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>318.3628100000001</v>
+        <v>318.36281</v>
       </c>
       <c r="M142" s="22" t="n">
         <v>366.84939</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>10717.763</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>1915968.77574</v>
@@ -6947,7 +7079,7 @@
         <v>4848350.52136</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>6103006.52125</v>
+        <v>6203242.329729999</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>6539528.316640001</v>
@@ -6959,14 +7091,19 @@
         <v>12804218.7291</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>12196463.29171</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>12196467.74324</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>12912574.088</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>1563408.30752</v>
@@ -6981,19 +7118,19 @@
         <v>2941020.69047</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>4421396.76927</v>
+        <v>4421396.769270001</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>4236591.8794</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>5348444.10387</v>
+        <v>5448679.91235</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>5089155.481119999</v>
+        <v>5089155.48112</v>
       </c>
       <c r="K144" s="25" t="n">
-        <v>4528467.90023</v>
+        <v>4528467.900230001</v>
       </c>
       <c r="L144" s="25" t="n">
         <v>9882582.75402</v>
@@ -7001,15 +7138,20 @@
       <c r="M144" s="25" t="n">
         <v>10275894.54258</v>
       </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+      <c r="N144" s="25" t="n">
+        <v>10346094.754</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>59233.53716</v>
+        <v>59233.53716000001</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>15081.1661</v>
@@ -7018,10 +7160,10 @@
         <v>2870.03875</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>24316.78837000001</v>
+        <v>24316.78837</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>39621.98491000001</v>
+        <v>39621.98491</v>
       </c>
       <c r="H145" s="24" t="n">
         <v>41309.36212</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>53321.78251</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>55651.22</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,15 +7228,20 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
-        <v>33668.48895</v>
+        <v>33668.48895000001</v>
       </c>
       <c r="D147" s="25" t="n">
         <v>23021.90925</v>
@@ -7104,16 +7256,16 @@
         <v>31132.17019</v>
       </c>
       <c r="H147" s="24" t="n">
-        <v>40555.64841</v>
+        <v>40555.64840999999</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>67191.14964</v>
+        <v>67191.14963999999</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>63088.40222</v>
       </c>
       <c r="K147" s="25" t="n">
-        <v>72457.19944999999</v>
+        <v>72457.19945</v>
       </c>
       <c r="L147" s="25" t="n">
         <v>75335.93062999999</v>
@@ -7121,21 +7273,26 @@
       <c r="M147" s="25" t="n">
         <v>88985.97735</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>84847.11</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
-        <v>259658.44211</v>
+        <v>259658.4421099999</v>
       </c>
       <c r="D148" s="25" t="n">
         <v>370537.51593</v>
       </c>
       <c r="E148" s="25" t="n">
-        <v>294977.7060900001</v>
+        <v>294977.70609</v>
       </c>
       <c r="F148" s="24" t="n">
         <v>533661.63894</v>
@@ -7159,14 +7316,19 @@
         <v>1550596.15264</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>1778260.98927</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>1778265.4408</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>2425981.004</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>230857.60967</v>
@@ -7187,7 +7349,7 @@
         <v>1305227.61626</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>3975364.41506</v>
+        <v>4100747.14956</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>2078926.28346</v>
@@ -7196,23 +7358,28 @@
         <v>2543512.55223</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>1590239.36751</v>
+        <v>1590244.68016</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>2439427.003810001</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>2439483.68622</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>2935388.579</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>40773.43637999999</v>
       </c>
       <c r="D150" s="22" t="n">
-        <v>66481.16093000001</v>
+        <v>66481.16093</v>
       </c>
       <c r="E150" s="22" t="n">
         <v>344483.56204</v>
@@ -7224,7 +7391,7 @@
         <v>340651.29702</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>352966.5419199999</v>
+        <v>352966.54192</v>
       </c>
       <c r="I150" s="22" t="n">
         <v>196542.85308</v>
@@ -7236,17 +7403,22 @@
         <v>178856.15811</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>353443.5044</v>
+        <v>353448.81705</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>491383.1120500001</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>491433.08168</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>715549.416</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>24.71264</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>8297.62586</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>9307.885</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>28276.47234</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>310499.02204</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>276533.791</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>2116.98967</v>
@@ -7338,7 +7520,7 @@
         <v>4611.294089999999</v>
       </c>
       <c r="F153" s="21" t="n">
-        <v>4763.967449999999</v>
+        <v>4763.96745</v>
       </c>
       <c r="G153" s="22" t="n">
         <v>7288.03361</v>
@@ -7347,26 +7529,31 @@
         <v>8807.596750000001</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>10027.13179</v>
+        <v>10532.89954</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>13038.47599</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>23455.97532999999</v>
+        <v>23455.97533</v>
       </c>
       <c r="L153" s="22" t="n">
         <v>31106.48003</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>34442.09368999999</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>34448.80647</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>53262.321</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>159665.99864</v>
@@ -7384,10 +7571,10 @@
         <v>578652.2124</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>852855.8155200001</v>
+        <v>852855.8155199999</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>3669705.49074</v>
+        <v>3794582.45749</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>1793736.40547</v>
@@ -7401,12 +7588,17 @@
       <c r="M154" s="22" t="n">
         <v>1594805.15017</v>
       </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+      <c r="N154" s="22" t="n">
+        <v>1880735.166</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>14352.10206</v>
@@ -7458,7 +7655,7 @@
         <v>29070.301</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>29403.53662000001</v>
+        <v>29403.53662</v>
       </c>
       <c r="G156" s="23" t="n">
         <v>61604.14079</v>
@@ -7467,7 +7664,7 @@
         <v>35266.71068</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>42859.54809</v>
+        <v>43069.02841000001</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>59385.29959999999</v>
@@ -7481,12 +7678,17 @@
       <c r="M156" s="23" t="n">
         <v>133949.50699</v>
       </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+      <c r="N156" s="23" t="n">
+        <v>111992.442</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>12121.94135</v>
@@ -7507,13 +7709,13 @@
         <v>33770.77680000001</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>41339.23353</v>
+        <v>41548.71385</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>59095.90994999999</v>
       </c>
       <c r="K157" s="22" t="n">
-        <v>93473.60617999999</v>
+        <v>93473.60618</v>
       </c>
       <c r="L157" s="22" t="n">
         <v>132040.38266</v>
@@ -7521,12 +7723,17 @@
       <c r="M157" s="22" t="n">
         <v>132926.07071</v>
       </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+      <c r="N157" s="22" t="n">
+        <v>110913.022</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>2230.16071</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1023.43628</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>1079.42</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>1716.10135</v>
@@ -7599,14 +7811,19 @@
         <v>0</v>
       </c>
       <c r="M159" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+        <v>34743.561</v>
+      </c>
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>1716.10135</v>
@@ -7639,14 +7856,19 @@
         <v>0</v>
       </c>
       <c r="M160" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+        <v>34743.561</v>
+      </c>
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,33 +7903,38 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
-        <v>39895.46967999999</v>
+        <v>39895.46968000001</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>42220.34072</v>
+        <v>42220.34072000001</v>
       </c>
       <c r="E162" s="23" t="n">
         <v>52194.24438</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>54830.43707000001</v>
+        <v>54830.43706999999</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>95572.89498</v>
+        <v>95572.89497999998</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>77614.59174</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>118214.74747</v>
+        <v>118686.75084</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>172684.59219</v>
@@ -7716,20 +7943,25 @@
         <v>169190.06657</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>334156.6488</v>
+        <v>334157.19117</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>221000.03431</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>222047.43097</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>302963.19</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>33606.05897999999</v>
+        <v>33606.05898</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>35312.13792</v>
@@ -7744,10 +7976,10 @@
         <v>85602.65557</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>65918.08735</v>
+        <v>65918.08735000002</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>104642.82523</v>
+        <v>104900.20232</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>145488.76455</v>
@@ -7756,20 +7988,25 @@
         <v>134769.20803</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>293806.60639</v>
+        <v>293807.14876</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>183687.26086</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>184731.78032</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>231259.711</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>6261.760399999999</v>
+        <v>6261.7604</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>6871.139429999999</v>
@@ -7781,32 +8018,37 @@
         <v>8588.55567</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>9669.568480000002</v>
+        <v>9669.568479999998</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>11362.67444</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>12739.81503</v>
+        <v>12954.20703</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>23632.7524</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>27344.51534999999</v>
+        <v>27344.51535</v>
       </c>
       <c r="L164" s="22" t="n">
         <v>21187.20147</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>25307.8503</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>25310.7275</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>41629.185</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>9.272120000000001</v>
@@ -7841,12 +8083,17 @@
       <c r="M165" s="22" t="n">
         <v>11821.00441</v>
       </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+      <c r="N165" s="22" t="n">
+        <v>29887.739</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>18.37818</v>
@@ -7864,10 +8111,10 @@
         <v>47.23908</v>
       </c>
       <c r="H166" s="21" t="n">
-        <v>52.79021</v>
+        <v>52.79021000000001</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>59.88351</v>
+        <v>60.11779</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>54.96811</v>
@@ -7881,24 +8128,29 @@
       <c r="M166" s="22" t="n">
         <v>183.91874</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>186.555</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>33808.67813</v>
+        <v>33808.67813000001</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>43893.24369</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>73320.49390999999</v>
+        <v>73320.49391</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>91911.38466</v>
+        <v>91911.38466000001</v>
       </c>
       <c r="G167" s="23" t="n">
         <v>13531.08146</v>
@@ -7913,7 +8165,7 @@
         <v>43299.63798</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>42400.42988</v>
+        <v>42400.42988000001</v>
       </c>
       <c r="L167" s="23" t="n">
         <v>73380.29037</v>
@@ -7921,18 +8173,23 @@
       <c r="M167" s="23" t="n">
         <v>83259.26516</v>
       </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+      <c r="N167" s="23" t="n">
+        <v>124668.012</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
-        <v>28496.54718000001</v>
+        <v>28496.54718</v>
       </c>
       <c r="D168" s="22" t="n">
-        <v>42600.76688</v>
+        <v>42600.76688000001</v>
       </c>
       <c r="E168" s="22" t="n">
         <v>86148.75469000002</v>
@@ -7961,12 +8218,17 @@
       <c r="M168" s="22" t="n">
         <v>340901.22933</v>
       </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+      <c r="N168" s="22" t="n">
+        <v>391168.507</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>3727.28434</v>
@@ -8001,12 +8263,17 @@
       <c r="M169" s="22" t="n">
         <v>296870.31511</v>
       </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+      <c r="N169" s="22" t="n">
+        <v>315599.991</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>455.6213</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>1591.143</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>8515.135279999999</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>36109.2106</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>43318.95</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>524.2800100000001</v>
@@ -8121,18 +8398,23 @@
       <c r="M172" s="22" t="n">
         <v>2663.51904</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>4189.403</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>415817.96195</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>362174.9526799999</v>
+        <v>362174.95268</v>
       </c>
       <c r="E173" s="23" t="n">
         <v>369407.3971</v>
@@ -8147,10 +8429,10 @@
         <v>500712.70695</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>1188400.74872</v>
+        <v>1194789.27494</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>546505.90056</v>
+        <v>546505.9005600001</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>577476.57926</v>
@@ -8161,15 +8443,20 @@
       <c r="M173" s="23" t="n">
         <v>1206666.0947</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>1384283.068</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
-        <v>372889.15197</v>
+        <v>372889.1519699999</v>
       </c>
       <c r="D174" s="22" t="n">
         <v>294002.15246</v>
@@ -8187,7 +8474,7 @@
         <v>239991.6768</v>
       </c>
       <c r="I174" s="22" t="n">
-        <v>366424.29148</v>
+        <v>367300.56007</v>
       </c>
       <c r="J174" s="21" t="n">
         <v>386872.49278</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>553863.80453</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>571284.1580000001</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>42928.80998000001</v>
@@ -8227,7 +8519,7 @@
         <v>260721.03015</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>821976.4572400001</v>
+        <v>827488.71487</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>159633.40778</v>
@@ -8236,17 +8528,22 @@
         <v>126915.68404</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>367839.14071</v>
+        <v>367839.1407100001</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>652802.2901699999</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>652802.2901700001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>812998.91</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>106.23274</v>
@@ -8264,7 +8561,7 @@
         <v>500.01906</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>890.9771100000002</v>
+        <v>890.97711</v>
       </c>
       <c r="I176" s="23" t="n">
         <v>1357.62391</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>1337.6275</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>1973.414</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>2.77395</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>98.01814</v>
@@ -8439,14 +8756,19 @@
         <v>65.64594</v>
       </c>
       <c r="M180" s="22" t="n">
-        <v>33.21255</v>
-      </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+        <v>33.21254999999999</v>
+      </c>
+      <c r="N180" s="22" t="n">
+        <v>80.756</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>5.44065</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>1304.41495</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>1892.658</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>3278106.509399999</v>
@@ -8498,16 +8825,16 @@
         <v>5214545.39092</v>
       </c>
       <c r="F182" s="33" t="n">
-        <v>5530611.11501</v>
+        <v>5530611.115010001</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>8825848.554219998</v>
+        <v>8825848.554220002</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>9671805.397220001</v>
+        <v>9671805.397219999</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>10552525.02016</v>
+        <v>10894397.16121</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>12538177.59093</v>
@@ -8521,12 +8848,17 @@
       <c r="M182" s="23" t="n">
         <v>18556410.44496</v>
       </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+      <c r="N182" s="23" t="n">
+        <v>21257305.118</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>2051837.61718</v>
@@ -8547,26 +8879,31 @@
         <v>5201085.84598</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>4843494.27035</v>
+        <v>5097357.024069999</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>5748511.412810001</v>
+        <v>5748511.41281</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>6099366.06044</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>7049019.938339999</v>
+        <v>7049019.93834</v>
       </c>
       <c r="M183" s="23" t="n">
         <v>7578581.07409</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>7929714.758</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>1828680.0199</v>
@@ -8581,32 +8918,37 @@
         <v>2785961.33845</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>5059985.77384</v>
+        <v>5059985.773839999</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>4896529.30377</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>2920610.821849999</v>
+        <v>3174473.57557</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>5355682.74173</v>
+        <v>5355682.741730001</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>5794846.87897</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>6641329.82367</v>
+        <v>6641329.823669999</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>7183568.22311</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>7183568.223110001</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>7833816.699</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>1266.39691</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>163078.087</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>55869.241</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>114.81424</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>18065.23602</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>3076.647</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>80000</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>222006.01461</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>170000</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>43105.465</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>1064488.98743</v>
@@ -8867,7 +9239,7 @@
         <v>3710914.52134</v>
       </c>
       <c r="I191" s="23" t="n">
-        <v>4419243.655790001</v>
+        <v>4503630.80982</v>
       </c>
       <c r="J191" s="33" t="n">
         <v>5266282.57684</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>8921593.60784</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>10538153.126</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>209949.519</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>495.78885</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>1052643.73415</v>
@@ -9027,7 +9419,7 @@
         <v>3709306.45075</v>
       </c>
       <c r="I195" s="22" t="n">
-        <v>4363598.73605</v>
+        <v>4447985.89008</v>
       </c>
       <c r="J195" s="21" t="n">
         <v>5228544.08274</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>8895128.494969999</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>10328203.607</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>11349.46443</v>
@@ -9081,15 +9478,20 @@
       <c r="M196" s="22" t="n">
         <v>26465.11287</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>61133.5012</v>
+        <v>61133.50120000001</v>
       </c>
       <c r="D197" s="23" t="n">
         <v>62537.64821</v>
@@ -9121,15 +9523,20 @@
       <c r="M197" s="23" t="n">
         <v>1923790.43268</v>
       </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+      <c r="N197" s="23" t="n">
+        <v>2428394.908</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
-        <v>61133.5012</v>
+        <v>61133.50120000001</v>
       </c>
       <c r="D198" s="22" t="n">
         <v>61162.64821</v>
@@ -9138,7 +9545,7 @@
         <v>58591.51364</v>
       </c>
       <c r="F198" s="21" t="n">
-        <v>58366.92688</v>
+        <v>58366.92687999999</v>
       </c>
       <c r="G198" s="22" t="n">
         <v>40012.86829999999</v>
@@ -9161,12 +9568,17 @@
       <c r="M198" s="22" t="n">
         <v>143916.95768</v>
       </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+      <c r="N198" s="22" t="n">
+        <v>174000.271</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>1607490.75773</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>2049795.24</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>171983.65728</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>204200.337</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9356,17 +9788,22 @@
         <v>829.30534</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>951.4589199999999</v>
+        <v>951.45892</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>399.05999</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>399.06</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>1375</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>30218.511</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>30218.511</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>1375</v>
@@ -9481,15 +9928,20 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
-        <v>7886.095729999999</v>
+        <v>7886.09573</v>
       </c>
       <c r="D207" s="23" t="n">
         <v>10121.54798</v>
@@ -9507,7 +9959,7 @@
         <v>45981.45684000001</v>
       </c>
       <c r="I207" s="23" t="n">
-        <v>55068.31682</v>
+        <v>58690.55012</v>
       </c>
       <c r="J207" s="33" t="n">
         <v>129487.1304</v>
@@ -9521,15 +9973,20 @@
       <c r="M207" s="23" t="n">
         <v>108573.40634</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>125636.204</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
-        <v>7712.61402</v>
+        <v>7712.614020000001</v>
       </c>
       <c r="D208" s="22" t="n">
         <v>10121.54798</v>
@@ -9547,10 +10004,10 @@
         <v>31095.44402</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>35701.34993</v>
+        <v>39323.58323</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>48675.77482</v>
+        <v>48675.77481999999</v>
       </c>
       <c r="K208" s="22" t="n">
         <v>56911.2083</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>75723.18831</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>93693.594</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>173.48171</v>
@@ -9601,21 +10063,26 @@
       <c r="M209" s="22" t="n">
         <v>32850.21803</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>31942.61</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
-        <v>91385.30786</v>
+        <v>91385.30785999999</v>
       </c>
       <c r="D210" s="23" t="n">
         <v>87691.21179999999</v>
       </c>
       <c r="E210" s="23" t="n">
-        <v>83915.98828000001</v>
+        <v>83915.98827999999</v>
       </c>
       <c r="F210" s="33" t="n">
         <v>47706.86549</v>
@@ -9633,7 +10100,7 @@
         <v>48831.94516</v>
       </c>
       <c r="K210" s="23" t="n">
-        <v>74478.65084999999</v>
+        <v>74478.65085000001</v>
       </c>
       <c r="L210" s="23" t="n">
         <v>31036.68086</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>23871.92401</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>205187.535</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>81096.19979000001</v>
@@ -9681,18 +10153,23 @@
       <c r="M211" s="22" t="n">
         <v>3719.77861</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>4046.264</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>10289.10807</v>
       </c>
       <c r="D212" s="22" t="n">
-        <v>6871.8944</v>
+        <v>6871.894399999999</v>
       </c>
       <c r="E212" s="22" t="n">
         <v>4386.35391</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>20152.1454</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>201141.271</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>3923428.35032</v>
@@ -9901,32 +10403,37 @@
         <v>4320339.79571</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>4130857.851170001</v>
+        <v>4130857.85117</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>5594359.84963</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>5665390.282050001</v>
+        <v>5520072.45621</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>6089170.83002</v>
+        <v>6089170.830019998</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>7209529.509950001</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>7204482.612010001</v>
+        <v>7204479.691649999</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>8748513.432039998</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>8749841.60554</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>10032365.602</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>4049472.31111</v>
@@ -9938,7 +10445,7 @@
         <v>4345443.09536</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>4866670.7762</v>
+        <v>4866670.776200001</v>
       </c>
       <c r="G218" s="23" t="n">
         <v>5642127.70768</v>
@@ -9947,13 +10454,13 @@
         <v>7596983.122</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>8294697.812919999</v>
+        <v>8358197.812919999</v>
       </c>
       <c r="J218" s="33" t="n">
         <v>8499188.54961</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>8715044.07755</v>
+        <v>8715044.077550001</v>
       </c>
       <c r="L218" s="23" t="n">
         <v>8886110.87466</v>
@@ -9961,12 +10468,17 @@
       <c r="M218" s="23" t="n">
         <v>7239960.67366</v>
       </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+      <c r="N218" s="23" t="n">
+        <v>7649023.602</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>4134017.64561</v>
@@ -9978,7 +10490,7 @@
         <v>4844054.396609999</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>5343371.24561</v>
+        <v>5343371.245610001</v>
       </c>
       <c r="G219" s="22" t="n">
         <v>6129738.935729999</v>
@@ -9987,7 +10499,7 @@
         <v>8076797.027989999</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>8771117.860959999</v>
+        <v>8834617.860959999</v>
       </c>
       <c r="J219" s="21" t="n">
         <v>8966660.1</v>
@@ -9996,17 +10508,22 @@
         <v>9242800.65</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>9400763.449999999</v>
+        <v>9401263.449999999</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>7749628.539</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>7759478.539</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>8134784.189</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>89841.44743</v>
@@ -10021,7 +10538,7 @@
         <v>481952.24558</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>492961.03436</v>
+        <v>492961.0343599999</v>
       </c>
       <c r="H220" s="21" t="n">
         <v>486979.55623</v>
@@ -10030,23 +10547,28 @@
         <v>485538.99595</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>474319.50746</v>
+        <v>474319.5074600001</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>534604.52952</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>521500.53241</v>
+        <v>522000.53241</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>516515.82241</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>526365.82241</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>492606.459</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5296.112929999999</v>
@@ -10076,17 +10598,22 @@
         <v>6847.95707</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>6847.95707</v>
+        <v>6847.957069999999</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>6847.95707</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>6847.957069999999</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>6845.872</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>6527.42537</v>
@@ -10159,14 +10691,19 @@
         <v>2687.1108</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>981258.05966</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>981258.0596599999</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>985346.0600000001</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>14.67857</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>14.67857</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>14.679</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>6512.7468</v>
@@ -10439,17 +11006,22 @@
         <v>2672.43223</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>981243.38109</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>981243.3810899999</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>985331.3810000001</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
-        <v>83341.59544</v>
+        <v>83341.59544000002</v>
       </c>
       <c r="D231" s="23" t="n">
         <v>119546.39416</v>
@@ -10470,10 +11042,10 @@
         <v>443909.70215</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>549713.0377300001</v>
+        <v>549713.03773</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>729054.8139200001</v>
+        <v>729054.81392</v>
       </c>
       <c r="L231" s="23" t="n">
         <v>942967.42198</v>
@@ -10481,18 +11053,23 @@
       <c r="M231" s="23" t="n">
         <v>1398366.16512</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>1552372.611</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>57878.95411000001</v>
+        <v>57878.95411</v>
       </c>
       <c r="D232" s="22" t="n">
-        <v>68323.10122999999</v>
+        <v>68323.10123</v>
       </c>
       <c r="E232" s="22" t="n">
         <v>79975.80467</v>
@@ -10510,23 +11087,28 @@
         <v>270468.64046</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>356244.8632499999</v>
+        <v>356244.8632500001</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>493461.71598</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>636655.3838800001</v>
+        <v>636655.3838799999</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>569047.4253200002</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>569047.4253199999</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>662147.849</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>0</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>19988.32932</v>
@@ -10584,7 +11171,7 @@
         <v>84906.31539000002</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>82761.91096000001</v>
+        <v>82761.91095999999</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>150088.38107</v>
@@ -10599,14 +11186,19 @@
         <v>273319.52887</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>368345.84378</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>368345.8437800001</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>417375.276</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>180.8248</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>5293.48721</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>460872.89602</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>472749.486</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>122391.69741</v>
@@ -10707,10 +11309,10 @@
         <v>450605.02467</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>508315.99909</v>
+        <v>508315.9990900001</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>799010.7882800001</v>
+        <v>799010.83572</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>1471443.26081</v>
@@ -10721,12 +11323,17 @@
       <c r="M237" s="23" t="n">
         <v>3280218.69545</v>
       </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+      <c r="N237" s="23" t="n">
+        <v>4109717.052</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-267896.30721</v>
@@ -10747,32 +11354,37 @@
         <v>-2568614.04937</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-3265090.02035</v>
+        <v>-3431530.40647</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-4815292.294050001</v>
       </c>
       <c r="K238" s="23" t="n">
-        <v>-5678129.22487</v>
+        <v>-5678129.224870001</v>
       </c>
       <c r="L238" s="23" t="n">
         <v>-5743404.500899999</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-5299219.56482</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-5297863.37952</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-5933291.367</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>-70408.37179999999</v>
+        <v>-70408.37180000001</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>-67131.76886</v>
+        <v>-67131.76886000001</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-366538.92519</v>
@@ -10787,26 +11399,31 @@
         <v>-230628.62393</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-420415.6801299999</v>
+        <v>-462793.1198500001</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>825482.44779</v>
+        <v>825482.4003499999</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>1969523.97174</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>674234.64971</v>
+        <v>674231.72935</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>1147929.40297</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>1147901.39117</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>1669197.644</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>158678.55381</v>
@@ -10818,13 +11435,13 @@
         <v>371875.6325900001</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>581958.1497899999</v>
+        <v>581958.1497900001</v>
       </c>
       <c r="G240" s="22" t="n">
         <v>485082.31965</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>654108.7531900001</v>
+        <v>654108.75319</v>
       </c>
       <c r="I240" s="22" t="n">
         <v>1023726.13325</v>
@@ -10841,12 +11458,17 @@
       <c r="M240" s="22" t="n">
         <v>2064517.33203</v>
       </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+      <c r="N240" s="22" t="n">
+        <v>2631616.496</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>229086.92561</v>
@@ -10867,29 +11489,34 @@
         <v>884737.37712</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>1444141.81338</v>
+        <v>1486519.2531</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>849516.6746799999</v>
+        <v>849516.72212</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>207101.89296</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>1413785.03586</v>
+        <v>1413787.95622</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>916587.9290600001</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>916615.94086</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>962418.852</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>9956262.760059997</v>
+        <v>9956262.760060001</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>10585337.28501</v>
@@ -10907,23 +11534,26 @@
         <v>22756677.7855</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>28516080.74625</v>
+        <v>29006761.81643</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>28696825.79333</v>
+        <v>28696825.79334</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>30963368.10754</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>40692999.83515999</v>
+        <v>40693002.76982</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>45816030.87474</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>45853211.13984001</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>51868450.94</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>92</v>
@@ -10963,23 +11596,26 @@
         <v>133</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>126</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>134</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>137</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>130</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>